--- a/_files/student_grades_g3.xlsx
+++ b/_files/student_grades_g3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\Planeación mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="79">
   <si>
     <t>firstName</t>
   </si>
@@ -254,6 +254,21 @@
   </si>
   <si>
     <t>Salo recuerda que siempre debes enviarme junto con el taller las operaciones que realizaste para hallar la respuesta de las situaciones problema.</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Guía #5 - &lt;/span&gt;   Situaciones problema</t>
+  </si>
+  <si>
+    <t>Está pendiente la entrega del taller sobre la suma</t>
+  </si>
+  <si>
+    <t>Esta pendiente la entrega del taller sobre la resta</t>
+  </si>
+  <si>
+    <t>Esta pendiente la entrega del taller sobre multiplicación 2.</t>
+  </si>
+  <si>
+    <t>Está pendiente la entrega del taller</t>
   </si>
 </sst>
 </file>
@@ -302,7 +317,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +378,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -391,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -455,9 +476,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -467,7 +485,18 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,11 +823,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O8" sqref="O8"/>
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,9 +837,11 @@
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="14" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -856,14 +887,20 @@
       <c r="O1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43959</v>
+        <v>43967</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>62</v>
@@ -892,20 +929,26 @@
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>59</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>58</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="P2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -951,8 +994,14 @@
       <c r="O3" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="P3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -998,8 +1047,14 @@
       <c r="O4" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="P4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -1033,14 +1088,26 @@
       <c r="K5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="5"/>
+      <c r="L5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
@@ -1086,8 +1153,14 @@
       <c r="O6" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="P6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -1116,17 +1189,25 @@
         <v>68</v>
       </c>
       <c r="J7" s="19"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="N7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
@@ -1172,8 +1253,14 @@
       <c r="O8" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="P8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
@@ -1219,8 +1306,14 @@
       <c r="O9" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="P9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
@@ -1260,12 +1353,20 @@
       <c r="M10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
@@ -1293,22 +1394,32 @@
       <c r="I11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" s="5"/>
+      <c r="J11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="N11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="P11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1354,8 +1465,14 @@
       <c r="O12" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="P12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -1401,8 +1518,14 @@
       <c r="O13" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="P13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -1448,8 +1571,14 @@
       <c r="O14" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="P14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
@@ -1495,8 +1624,14 @@
       <c r="O15" s="22" t="s">
         <v>66</v>
       </c>
+      <c r="P15" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1542,8 +1677,14 @@
       <c r="O16" s="22" t="s">
         <v>68</v>
       </c>
+      <c r="P16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
@@ -1579,8 +1720,14 @@
       <c r="O17" s="22" t="s">
         <v>64</v>
       </c>
+      <c r="P17" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
@@ -1610,10 +1757,14 @@
         <v>2</v>
       </c>
       <c r="M18" s="22"/>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="25" t="s">
         <v>2</v>
       </c>
       <c r="O18" s="22"/>
+      <c r="P18" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_files/student_grades_g3.xlsx
+++ b/_files/student_grades_g3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="83">
   <si>
     <t>firstName</t>
   </si>
@@ -269,6 +269,18 @@
   </si>
   <si>
     <t>Está pendiente la entrega del taller</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Guía #6 - &lt;/span&gt;   Circulo y circunferencia</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Guía #7 - &lt;/span&gt;   Taller de fin de periodo 2</t>
+  </si>
+  <si>
+    <t>¡Ally, en esta tarea te faltó el último punto!</t>
+  </si>
+  <si>
+    <t>¡Juan haz hecho un excelente trabajo!</t>
   </si>
 </sst>
 </file>
@@ -278,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +328,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +402,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -412,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -495,6 +525,36 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -823,11 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,9 +899,13 @@
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -893,14 +957,26 @@
       <c r="Q1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="R1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43967</v>
+        <v>43975</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>62</v>
@@ -947,8 +1023,20 @@
       <c r="Q2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="R2" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -1000,8 +1088,16 @@
       <c r="Q3" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="R3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="32"/>
+      <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -1053,8 +1149,20 @@
       <c r="Q4" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="R4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1214,16 @@
       <c r="Q5" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="R5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" s="32"/>
+      <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
@@ -1159,8 +1275,16 @@
       <c r="Q6" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="R6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" s="32"/>
+      <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -1206,8 +1330,12 @@
       <c r="Q7" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="R7" s="33"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
@@ -1259,8 +1387,16 @@
       <c r="Q8" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="R8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="32"/>
+      <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
@@ -1312,8 +1448,20 @@
       <c r="Q9" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="R9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
@@ -1365,8 +1513,12 @@
       <c r="Q10" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="R10" s="33"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
@@ -1418,8 +1570,16 @@
       <c r="Q11" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="R11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T11" s="32"/>
+      <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1471,8 +1631,16 @@
       <c r="Q12" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="R12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T12" s="32"/>
+      <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -1524,8 +1692,12 @@
       <c r="Q13" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="R13" s="35"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -1577,8 +1749,20 @@
       <c r="Q14" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="R14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
@@ -1630,8 +1814,16 @@
       <c r="Q15" s="22" t="s">
         <v>67</v>
       </c>
+      <c r="R15" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="T15" s="37"/>
+      <c r="U15" s="22"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1683,8 +1875,16 @@
       <c r="Q16" s="22" t="s">
         <v>63</v>
       </c>
+      <c r="R16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" s="36"/>
+      <c r="U16" s="22"/>
     </row>
-    <row r="17" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
@@ -1726,8 +1926,20 @@
       <c r="Q17" s="22" t="s">
         <v>66</v>
       </c>
+      <c r="R17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="22" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
@@ -1765,6 +1977,12 @@
         <v>2</v>
       </c>
       <c r="Q18" s="22"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_files/student_grades_g3.xlsx
+++ b/_files/student_grades_g3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="89">
   <si>
     <t>firstName</t>
   </si>
@@ -281,6 +281,24 @@
   </si>
   <si>
     <t>¡Juan haz hecho un excelente trabajo!</t>
+  </si>
+  <si>
+    <t>Esta pendiente la entrega del taller sobe multiplicación 3</t>
+  </si>
+  <si>
+    <t>Esta pendiente la entrega del taller de fin de periodo</t>
+  </si>
+  <si>
+    <t>Salo en las multiplicaciones por dos y tres cifras es necesario que me dejesla evidencia del proceso realizado paa llegar a la respuesta.</t>
+  </si>
+  <si>
+    <t>Justin te faltaron los dos últimos puntos de la tarea</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>Justin te faltó desarrollar el punto 8 y 9 del taller</t>
   </si>
 </sst>
 </file>
@@ -442,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -493,9 +511,6 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -524,9 +539,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -542,20 +554,14 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,9 +891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +982,7 @@
       </c>
       <c r="B2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43975</v>
+        <v>43980</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>62</v>
@@ -1005,31 +1011,31 @@
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>59</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="23" t="s">
         <v>58</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="28" t="s">
         <v>79</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="29" t="s">
         <v>80</v>
       </c>
       <c r="U2" s="4" t="s">
@@ -1094,8 +1100,12 @@
       <c r="S3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="5"/>
+      <c r="T3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -1220,8 +1230,12 @@
       <c r="S5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="5"/>
+      <c r="T5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -1281,8 +1295,12 @@
       <c r="S6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="5"/>
+      <c r="T6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1312,11 +1330,11 @@
       <c r="I7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="28"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="5" t="s">
         <v>76</v>
       </c>
@@ -1326,14 +1344,18 @@
       <c r="O7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="27"/>
+      <c r="P7" s="26"/>
       <c r="Q7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="5"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T7" s="30"/>
+      <c r="U7" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -1393,8 +1415,12 @@
       <c r="S8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="5"/>
+      <c r="T8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -1501,7 +1527,7 @@
       <c r="M10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="24" t="s">
         <v>2</v>
       </c>
       <c r="O10" s="5" t="s">
@@ -1513,9 +1539,13 @@
       <c r="Q10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="34"/>
+      <c r="R10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="32"/>
       <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,8 +1606,12 @@
       <c r="S11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="T11" s="32"/>
-      <c r="U11" s="5"/>
+      <c r="T11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -1637,8 +1671,12 @@
       <c r="S12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="5"/>
+      <c r="T12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -1692,10 +1730,18 @@
       <c r="Q13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R13" s="35"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="5"/>
+      <c r="R13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1725,37 +1771,37 @@
       <c r="I14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="20" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="20" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="20" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="20" t="s">
         <v>3</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="R14" s="20" t="s">
         <v>3</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="T14" s="20" t="s">
         <v>3</v>
       </c>
       <c r="U14" s="5" t="s">
@@ -1775,53 +1821,57 @@
       <c r="D15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>65</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>68</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="21" t="s">
         <v>64</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="22" t="s">
+      <c r="M15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="P15" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="22" t="s">
+      <c r="P15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R15" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="22" t="s">
+      <c r="R15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="T15" s="37"/>
-      <c r="U15" s="22"/>
+      <c r="T15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -1836,53 +1886,57 @@
       <c r="D16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>64</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="21" t="s">
         <v>67</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="21" t="s">
         <v>65</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O16" s="22" t="s">
+      <c r="O16" s="21" t="s">
         <v>68</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="Q16" s="22" t="s">
+      <c r="Q16" s="21" t="s">
         <v>63</v>
       </c>
       <c r="R16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="S16" s="22" t="s">
+      <c r="S16" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="22"/>
+      <c r="T16" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -1894,48 +1948,48 @@
       <c r="C17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="22" t="s">
+      <c r="M17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="21" t="s">
         <v>66</v>
       </c>
       <c r="R17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="S17" s="22" t="s">
+      <c r="S17" s="21" t="s">
         <v>68</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="U17" s="22" t="s">
+      <c r="U17" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1949,40 +2003,46 @@
       <c r="C18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="19" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="18" t="s">
+      <c r="K18" s="21"/>
+      <c r="L18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="34"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" s="22"/>
-      <c r="P18" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="U18" s="22"/>
+      <c r="U18" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_files/student_grades_g3.xlsx
+++ b/_files/student_grades_g3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="93">
   <si>
     <t>firstName</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>Justin te faltó desarrollar el punto 8 y 9 del taller</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Examen - &lt;/span&gt;   fin de periodo 2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>¡Excelente!</t>
+  </si>
+  <si>
+    <t>3.0</t>
   </si>
 </sst>
 </file>
@@ -460,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -562,6 +574,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,9 +933,11 @@
     <col min="19" max="19" width="13.28515625" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -975,14 +1001,20 @@
       <c r="U1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="V1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43980</v>
+        <v>43989</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>62</v>
@@ -1041,8 +1073,14 @@
       <c r="U2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="V2" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1144,14 @@
       <c r="U3" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="V3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -1171,8 +1215,14 @@
       <c r="U4" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="V4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1286,14 @@
       <c r="U5" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="V5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
@@ -1301,8 +1357,14 @@
       <c r="U6" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="V6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -1356,8 +1418,10 @@
       <c r="U7" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="V7" s="37"/>
+      <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
@@ -1421,8 +1485,14 @@
       <c r="U8" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="V8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
@@ -1486,8 +1556,14 @@
       <c r="U9" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="V9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
@@ -1547,8 +1623,10 @@
       </c>
       <c r="T10" s="32"/>
       <c r="U10" s="5"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
@@ -1612,8 +1690,14 @@
       <c r="U11" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="V11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1677,8 +1761,14 @@
       <c r="U12" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="V12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -1742,8 +1832,12 @@
       <c r="U13" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="V13" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -1807,8 +1901,14 @@
       <c r="U14" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="V14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
@@ -1872,8 +1972,14 @@
       <c r="U15" s="21" t="s">
         <v>64</v>
       </c>
+      <c r="V15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1937,8 +2043,14 @@
       <c r="U16" s="21" t="s">
         <v>64</v>
       </c>
+      <c r="V16" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
@@ -1948,19 +2060,21 @@
       <c r="C17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>2</v>
+      <c r="D17" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="21"/>
-      <c r="F17" s="10" t="s">
-        <v>2</v>
+      <c r="F17" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="12" t="s">
-        <v>2</v>
+      <c r="H17" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="I17" s="21"/>
-      <c r="J17" s="18"/>
+      <c r="J17" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="K17" s="21"/>
       <c r="L17" s="11" t="s">
         <v>3</v>
@@ -1992,8 +2106,14 @@
       <c r="U17" s="21" t="s">
         <v>65</v>
       </c>
+      <c r="V17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
@@ -2043,6 +2163,10 @@
         <v>2</v>
       </c>
       <c r="U18" s="21"/>
+      <c r="V18" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
